--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P32_trail9 Features.xlsx
@@ -4381,7 +4381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4392,29 +4392,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4435,115 +4433,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4560,72 +4548,66 @@
         <v>3.47961726066128e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.1534254981417408</v>
+        <v>2.247605848569569e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.240670722796512</v>
+        <v>2.451741431079535e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.247605848569569e-06</v>
+        <v>0.1028686982258268</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.451741431079535e-06</v>
+        <v>0.2818793080054947</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1028686982258268</v>
+        <v>0.08985664484621711</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2818793080054947</v>
+        <v>1.244418009003177</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08985664484621711</v>
+        <v>1.284403932592433</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.190486100804306</v>
+        <v>3.462534208124676</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.284403932592433</v>
+        <v>1.161539025575274e-13</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.462534208124676</v>
+        <v>2688772.36610984</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.161539025575274e-13</v>
+        <v>2.645423215577637e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2688772.36610984</v>
+        <v>0.8397342711164977</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.645423215577637e-05</v>
+        <v>0.0002054407178630854</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0.8397342711164977</v>
+        <v>9.484580262682268</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002054407178630854</v>
+        <v>1.383639073692057</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.484580262682268</v>
+        <v>0.01848088463826099</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.383639073692057</v>
+        <v>2.530409571589972</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01848088463826099</v>
+        <v>0.8784208777862543</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.530409571589972</v>
+        <v>1.962196706846473</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.8784208777862543</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.962196706846473</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1210144596982008</v>
       </c>
     </row>
@@ -4640,72 +4622,66 @@
         <v>3.203849122097536e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6029710401760247</v>
+        <v>1.740795093259367e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.5860824440246692</v>
+        <v>2.483031439946205e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.740795093259367e-06</v>
+        <v>0.08545305563239378</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.483031439946205e-06</v>
+        <v>0.2382617409006579</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08545305563239378</v>
+        <v>0.06395541065862044</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2382617409006579</v>
+        <v>1.237208999960363</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06395541065862044</v>
+        <v>1.278819496101809</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.182202611344439</v>
+        <v>3.370504066437074</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.278819496101809</v>
+        <v>1.225835630160228e-13</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.370504066437074</v>
+        <v>2559026.03749536</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.225835630160228e-13</v>
+        <v>2.78612160005957e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2559026.03749536</v>
+        <v>0.8027524688793368</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.78612160005957e-05</v>
+        <v>0.0002159835111678518</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0.8027524688793368</v>
+        <v>9.343535998928003</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002159835111678518</v>
+        <v>1.506413793940683</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.343535998928003</v>
+        <v>0.01885572012956508</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.506413793940683</v>
+        <v>2.549114556849291</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01885572012956508</v>
+        <v>0.8739816241915224</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.549114556849291</v>
+        <v>1.967840570865284</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.8739816241915224</v>
+        <v>4</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.967840570865284</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1163918393194446</v>
       </c>
     </row>
@@ -4720,72 +4696,66 @@
         <v>3.130980326732448e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.8696886514741293</v>
+        <v>1.381076251396548e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.1128495993937921</v>
+        <v>2.507466601548086e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.381076251396548e-06</v>
+        <v>0.07026801393264309</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.507466601548086e-06</v>
+        <v>0.2002444348498805</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07026801393264309</v>
+        <v>0.04497588662909937</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2002444348498805</v>
+        <v>1.216127339299293</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04497588662909937</v>
+        <v>1.274115066771238</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.168008209583117</v>
+        <v>3.289309251487813</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.274115066771238</v>
+        <v>1.287100734751477e-13</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.289309251487813</v>
+        <v>2510139.79819448</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.287100734751477e-13</v>
+        <v>2.733372175490814e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2510139.79819448</v>
+        <v>0.8109766634643615</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.733372175490814e-05</v>
+        <v>0.0002013006955523333</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.8109766634643615</v>
+        <v>10.77634725267658</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002013006955523333</v>
+        <v>1.183933832985996</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.77634725267658</v>
+        <v>0.02337698135445341</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.183933832985996</v>
+        <v>2.455077911537805</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02337698135445341</v>
+        <v>0.8694363756150023</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.455077911537805</v>
+        <v>1.944485276859481</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.8694363756150023</v>
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.944485276859481</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1230997994420702</v>
       </c>
     </row>
@@ -4800,72 +4770,66 @@
         <v>3.169144640425749e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.896049829426066</v>
+        <v>1.134422035556166e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.08673597745459194</v>
+        <v>2.527706206133765e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.134422035556166e-06</v>
+        <v>0.05914534193025105</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.527706206133765e-06</v>
+        <v>0.1750835098612067</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05914534193025105</v>
+        <v>0.03412509182999173</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1750835098612067</v>
+        <v>1.178837843242312</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03412509182999173</v>
+        <v>1.281416912448259</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.136100630040184</v>
+        <v>3.270091821863342</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.281416912448259</v>
+        <v>1.302273059476527e-13</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.270091821863342</v>
+        <v>2657502.118774117</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.302273059476527e-13</v>
+        <v>2.443997367856397e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2657502.118774117</v>
+        <v>0.9197065832420875</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.443997367856397e-05</v>
+        <v>0.0002055864849182585</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.9197065832420875</v>
+        <v>12.24791351816389</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002055864849182585</v>
+        <v>1.040378162565191</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>12.24791351816389</v>
+        <v>0.03084031345261767</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.040378162565191</v>
+        <v>2.168553150697039</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03084031345261767</v>
+        <v>0.8525890200842431</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.168553150697039</v>
+        <v>1.955658417929321</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.8525890200842431</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.955658417929321</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1303500644261667</v>
       </c>
     </row>
@@ -4880,72 +4844,66 @@
         <v>3.258849054813418e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8498718600607122</v>
+        <v>1.109895345040132e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2647795379605933</v>
+        <v>2.545203237041674e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.109895345040132e-06</v>
+        <v>0.05015814777204956</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.545203237041674e-06</v>
+        <v>0.159115263326083</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05015814777204956</v>
+        <v>0.02782155924428771</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.159115263326083</v>
+        <v>1.171942507914713</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02782155924428771</v>
+        <v>1.269711997190859</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.130057850197149</v>
+        <v>3.201362831446077</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.269711997190859</v>
+        <v>1.358789413420752e-13</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.201362831446077</v>
+        <v>2560612.668933728</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.358789413420752e-13</v>
+        <v>2.536726572543267e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2560612.668933728</v>
+        <v>0.8909225148706548</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.536726572543267e-05</v>
+        <v>0.0002045933774969395</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.8909225148706548</v>
+        <v>11.24600183343214</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002045933774969395</v>
+        <v>1.129007360314318</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.24600183343214</v>
+        <v>0.02587544764590718</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.129007360314318</v>
+        <v>2.35526167302891</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02587544764590718</v>
+        <v>0.8515110660675855</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.35526167302891</v>
+        <v>1.96451929087608</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.8515110660675855</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.96451929087608</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1245666529164902</v>
       </c>
     </row>
@@ -4960,72 +4918,66 @@
         <v>3.363208407913608e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7878830116332123</v>
+        <v>1.111467073454864e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.4476532062920326</v>
+        <v>2.560496850806332e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.111467073454864e-06</v>
+        <v>0.04257533284051533</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.560496850806332e-06</v>
+        <v>0.1489165802603445</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04257533284051533</v>
+        <v>0.02398317952927225</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1489165802603445</v>
+        <v>1.149810411618347</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02398317952927225</v>
+        <v>1.257242897462591</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.113156853806368</v>
+        <v>3.244207948066341</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.257242897462591</v>
+        <v>1.32313629696604e-13</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.244207948066341</v>
+        <v>2688902.403791766</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.32313629696604e-13</v>
+        <v>2.338848238773939e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2688902.403791766</v>
+        <v>0.956653494320333</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.338848238773939e-05</v>
+        <v>0.0002085963087469704</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.956653494320333</v>
+        <v>9.686089257142179</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002085963087469704</v>
+        <v>1.364040637309826</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.686089257142179</v>
+        <v>0.01957057350074277</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.364040637309826</v>
+        <v>2.509065804643331</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01957057350074277</v>
+        <v>0.8428800974340929</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.509065804643331</v>
+        <v>1.973472185450372</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.8428800974340929</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.973472185450372</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1195141582392815</v>
       </c>
     </row>
@@ -5402,7 +5354,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.451298397922127</v>
+        <v>1.42114210980985</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.04092030784541</v>
@@ -5491,7 +5443,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.456229282633572</v>
+        <v>1.43302987510904</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.150894491738646</v>
@@ -5580,7 +5532,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.483124173989966</v>
+        <v>1.446697801372044</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.182606957766311</v>
@@ -5669,7 +5621,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.498330514502877</v>
+        <v>1.458244833532674</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.967892112662703</v>
@@ -5758,7 +5710,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.476697697801577</v>
+        <v>1.434643832601616</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.031234926365166</v>
@@ -5847,7 +5799,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.478629841214708</v>
+        <v>1.437096999920854</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.039920361079842</v>
@@ -5936,7 +5888,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.469933842154266</v>
+        <v>1.435913422256089</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.063134665800178</v>
@@ -6025,7 +5977,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.469669190099525</v>
+        <v>1.439035355291201</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.997178994502084</v>
@@ -6114,7 +6066,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.484577487812602</v>
+        <v>1.438298757563212</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.939929846788093</v>
@@ -6203,7 +6155,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.483908562134467</v>
+        <v>1.440080271965831</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.973466464025708</v>
@@ -6292,7 +6244,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.494768280151276</v>
+        <v>1.444440440758796</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.984126276045922</v>
@@ -6381,7 +6333,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.493882009554659</v>
+        <v>1.4455711178588</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.02759323931155</v>
@@ -6470,7 +6422,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.497869094972673</v>
+        <v>1.443234997482251</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.986838902448739</v>
@@ -6559,7 +6511,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.510135682862786</v>
+        <v>1.447465237163762</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.941652191177147</v>
@@ -6648,7 +6600,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.525632309973828</v>
+        <v>1.467352415933944</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.976865930351086</v>
@@ -6737,7 +6689,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.562668379809674</v>
+        <v>1.500348653977327</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.630276665311291</v>
@@ -6826,7 +6778,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.567024450349525</v>
+        <v>1.496125079523307</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.565507172020367</v>
@@ -6915,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.538592414588429</v>
+        <v>1.480795434415674</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.382491772471645</v>
@@ -7004,7 +6956,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.500321548671567</v>
+        <v>1.449881014979872</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.943044261569013</v>
@@ -7093,7 +7045,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.388584163603574</v>
+        <v>1.363584145098951</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.575735865674205</v>
@@ -7182,7 +7134,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.283303169906628</v>
+        <v>1.261236738074035</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.653690034712266</v>
@@ -7271,7 +7223,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.246265048954215</v>
+        <v>1.225918858036151</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.745973974000269</v>
@@ -7360,7 +7312,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.282705215489346</v>
+        <v>1.263202045678918</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.815941187758266</v>
@@ -7449,7 +7401,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.298303387421076</v>
+        <v>1.25764874488812</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.927827270716779</v>
@@ -7538,7 +7490,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.290063807054414</v>
+        <v>1.251409505004801</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.935598405217682</v>
@@ -7627,7 +7579,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.284710538888174</v>
+        <v>1.247153698260838</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.947400345172058</v>
@@ -7716,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.282267449766697</v>
+        <v>1.245087908742904</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.936717999907524</v>
@@ -7805,7 +7757,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.282180755721272</v>
+        <v>1.245386825824583</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.949386225375034</v>
@@ -7894,7 +7846,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.282350730207695</v>
+        <v>1.247381820918584</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.944753404706559</v>
@@ -7983,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.27352081218504</v>
+        <v>1.239112085701555</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.948755695541519</v>
@@ -8072,7 +8024,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.274422678369141</v>
+        <v>1.24038752373258</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.948770204354109</v>
@@ -8161,7 +8113,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.266768693518427</v>
+        <v>1.233275943561124</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.958725307685794</v>
@@ -8250,7 +8202,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.269462581531919</v>
+        <v>1.235506685074393</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.967231226378632</v>
@@ -8339,7 +8291,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.276023992215101</v>
+        <v>1.239859802960513</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.909523016382686</v>
@@ -8428,7 +8380,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.289640671069948</v>
+        <v>1.24936760454591</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.907923305773073</v>
@@ -8517,7 +8469,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.331728211147656</v>
+        <v>1.281708899730441</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.76839240207698</v>
@@ -8606,7 +8558,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.339438143252589</v>
+        <v>1.285523493632365</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.874670406266604</v>
@@ -8695,7 +8647,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.315619810274127</v>
+        <v>1.259744949671473</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.735339333766799</v>
@@ -8784,7 +8736,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.286007911655694</v>
+        <v>1.261547598414328</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.894035812980591</v>
@@ -8873,7 +8825,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.294355646286753</v>
+        <v>1.271257308556763</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.863076326873819</v>
@@ -8962,7 +8914,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.299020844128874</v>
+        <v>1.281072149215581</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.920119244676729</v>
@@ -9051,7 +9003,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.303779940043788</v>
+        <v>1.285625727786311</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.932066071775148</v>
@@ -9140,7 +9092,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.304572155897608</v>
+        <v>1.288628324382468</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.919428480600445</v>
@@ -9229,7 +9181,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.309776601853887</v>
+        <v>1.293036411838347</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.963031894617</v>
@@ -9318,7 +9270,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.337741117281299</v>
+        <v>1.319728716902606</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.932287802737263</v>
@@ -9407,7 +9359,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.338911081408032</v>
+        <v>1.319238718598489</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.939007874800574</v>
@@ -9496,7 +9448,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.370028517008749</v>
+        <v>1.349304123623784</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.943207821413701</v>
@@ -9585,7 +9537,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.373022951961988</v>
+        <v>1.355267560034264</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.898116687776312</v>
@@ -9674,7 +9626,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.369090327104236</v>
+        <v>1.355358359247965</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.899747169109099</v>
@@ -9763,7 +9715,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.380478182996857</v>
+        <v>1.364650615805182</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.87806354257097</v>
@@ -9852,7 +9804,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.426746418676114</v>
+        <v>1.400464038213968</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.694056270932623</v>
@@ -10138,7 +10090,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.28030479918258</v>
+        <v>1.242830294800724</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.798461281199713</v>
@@ -10227,7 +10179,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.288075997305518</v>
+        <v>1.253954167807542</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.838555912703961</v>
@@ -10316,7 +10268,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.317997148917612</v>
+        <v>1.277316819696726</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.857122071917979</v>
@@ -10405,7 +10357,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.348579112098983</v>
+        <v>1.299838887564811</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.70489148209714</v>
@@ -10494,7 +10446,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.315572766477261</v>
+        <v>1.274015750489111</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.770631432529484</v>
@@ -10583,7 +10535,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.328685478287115</v>
+        <v>1.282639175750803</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.750672310257398</v>
@@ -10672,7 +10624,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.301961196970949</v>
+        <v>1.262974649575155</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.801046945548085</v>
@@ -10761,7 +10713,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.298625506028875</v>
+        <v>1.265053843331867</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.779207085525932</v>
@@ -10850,7 +10802,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.30680094015971</v>
+        <v>1.267608111142698</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.765675914264271</v>
@@ -10939,7 +10891,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.289545097272796</v>
+        <v>1.251847033127679</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.759058623216957</v>
@@ -11028,7 +10980,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.313790219600993</v>
+        <v>1.273995679562754</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.760632418808557</v>
@@ -11117,7 +11069,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.313477381712037</v>
+        <v>1.2728904548721</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.786634797599452</v>
@@ -11206,7 +11158,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.318868784149514</v>
+        <v>1.277417398103661</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.750333190309335</v>
@@ -11295,7 +11247,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.315369408252082</v>
+        <v>1.275099182955344</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.885599439124926</v>
@@ -11384,7 +11336,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.338726364790886</v>
+        <v>1.291383583189203</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.858397596043573</v>
@@ -11473,7 +11425,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.310412062740942</v>
+        <v>1.27269779663744</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.918109701730593</v>
@@ -11562,7 +11514,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.305588723469757</v>
+        <v>1.263308243807106</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.915177000711052</v>
@@ -11651,7 +11603,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.280778727525528</v>
+        <v>1.243297409690536</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.979853278288395</v>
@@ -11740,7 +11692,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.27251486044028</v>
+        <v>1.235731003244058</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.7678713174199</v>
@@ -11829,7 +11781,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.259394298462632</v>
+        <v>1.23717802957107</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.647301590778273</v>
@@ -11918,7 +11870,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.223509634898985</v>
+        <v>1.205563284961803</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.70832958839106</v>
@@ -12007,7 +11959,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.219625174996217</v>
+        <v>1.204549495340712</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.76659505085038</v>
@@ -12096,7 +12048,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.2525292342437</v>
+        <v>1.236114695316056</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.823069362112805</v>
@@ -12185,7 +12137,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.272532869384462</v>
+        <v>1.238752646166515</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.94101504505413</v>
@@ -12274,7 +12226,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.26812925218246</v>
+        <v>1.234814108978978</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.949986744372581</v>
@@ -12363,7 +12315,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.262788332831723</v>
+        <v>1.230472038753635</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.95038833141721</v>
@@ -12452,7 +12404,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.253746627441759</v>
+        <v>1.221941604670429</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.967792855348308</v>
@@ -12541,7 +12493,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.252277411152781</v>
+        <v>1.22158342769637</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.915253215115815</v>
@@ -12630,7 +12582,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.253212976602477</v>
+        <v>1.225104806686396</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.949258064348353</v>
@@ -12719,7 +12671,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.235915303258864</v>
+        <v>1.20936872151662</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.994411697794743</v>
@@ -12808,7 +12760,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.241114491884602</v>
+        <v>1.214860306549446</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.980024411254865</v>
@@ -12897,7 +12849,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.227224179986481</v>
+        <v>1.202175828844588</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.999036850507787</v>
@@ -12986,7 +12938,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.231862591511767</v>
+        <v>1.206316764171955</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.966725653463749</v>
@@ -13075,7 +13027,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.237100436880102</v>
+        <v>1.211007057210357</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.911093349825567</v>
@@ -13164,7 +13116,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.238298019113154</v>
+        <v>1.208468051652075</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.849843283634965</v>
@@ -13253,7 +13205,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.261940437238502</v>
+        <v>1.224552395055398</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.840987272434382</v>
@@ -13342,7 +13294,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.24871831297766</v>
+        <v>1.202089559655135</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.958322408049282</v>
@@ -13431,7 +13383,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.224004340309776</v>
+        <v>1.176385203531622</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.89209170283678</v>
@@ -13520,7 +13472,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.183322595317145</v>
+        <v>1.150879789231334</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.883781506432287</v>
@@ -13609,7 +13561,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.190042835976866</v>
+        <v>1.157673469879911</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.884164247109497</v>
@@ -13698,7 +13650,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.192463058171617</v>
+        <v>1.161385566568007</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.842897241379325</v>
@@ -13787,7 +13739,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.208172607257991</v>
+        <v>1.17711530612311</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.869946212702605</v>
@@ -13876,7 +13828,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.210659763322778</v>
+        <v>1.179752970888025</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.833063517826057</v>
@@ -13965,7 +13917,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.218780199534268</v>
+        <v>1.186784470079971</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.788300557782448</v>
@@ -14054,7 +14006,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.250921710562364</v>
+        <v>1.215560072056942</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.762863978619564</v>
@@ -14143,7 +14095,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.257137715007433</v>
+        <v>1.220276967964006</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.754310155286427</v>
@@ -14232,7 +14184,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.292917297475682</v>
+        <v>1.252218658842505</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.710414352985856</v>
@@ -14321,7 +14273,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.299938622465625</v>
+        <v>1.261915734374435</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.766670545074037</v>
@@ -14410,7 +14362,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.30217499297992</v>
+        <v>1.26533962885051</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.771731527288817</v>
@@ -14499,7 +14451,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.314604514315949</v>
+        <v>1.275095182882391</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.769828447839885</v>
@@ -14588,7 +14540,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.347115398553558</v>
+        <v>1.299275358494745</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.657287255939929</v>
@@ -14874,7 +14826,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.671865577103417</v>
+        <v>1.642557611657703</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.631722300998077</v>
@@ -14963,7 +14915,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.682015545471235</v>
+        <v>1.651674227911726</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.402721210690568</v>
@@ -15052,7 +15004,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.700526201364267</v>
+        <v>1.657329914731819</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.411339654696142</v>
@@ -15141,7 +15093,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.709125261973185</v>
+        <v>1.661772829887464</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.543060444276602</v>
@@ -15230,7 +15182,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.687446087196076</v>
+        <v>1.641224280443428</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.62075892228072</v>
@@ -15319,7 +15271,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.6726027799632</v>
+        <v>1.629560529441489</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.631671757855747</v>
@@ -15408,7 +15360,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669670538338497</v>
+        <v>1.629107112663618</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.57380509694181</v>
@@ -15497,7 +15449,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.663658938317424</v>
+        <v>1.628740749463123</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.562968305426073</v>
@@ -15586,7 +15538,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.66476863158125</v>
+        <v>1.62853748401489</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.589905954965968</v>
@@ -15675,7 +15627,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.664125737827871</v>
+        <v>1.628660924613807</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.523498029907193</v>
@@ -15764,7 +15716,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.664964229325572</v>
+        <v>1.625503725521629</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.551037013277726</v>
@@ -15853,7 +15805,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.654097117755901</v>
+        <v>1.608252936408305</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.598493993080785</v>
@@ -15942,7 +15894,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.656512729035523</v>
+        <v>1.604282676259039</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.538696958273921</v>
@@ -16031,7 +15983,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.64452188169333</v>
+        <v>1.584887655082358</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.491809386610242</v>
@@ -16120,7 +16072,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.658826263472676</v>
+        <v>1.59955081381274</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.640188819826588</v>
@@ -16209,7 +16161,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.686824197062982</v>
+        <v>1.617070207469264</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.084333227594994</v>
@@ -16298,7 +16250,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.688913283734907</v>
+        <v>1.612911249137144</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.362411522160377</v>
@@ -16387,7 +16339,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.648605428078454</v>
+        <v>1.585751136237708</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.462273200169035</v>
@@ -16476,7 +16428,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.60165253877552</v>
+        <v>1.555025692419449</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.348408886228123</v>
@@ -16565,7 +16517,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.578331289991775</v>
+        <v>1.568007913141972</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.886390419882411</v>
@@ -16654,7 +16606,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.392665283603396</v>
+        <v>1.385644702075283</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.64378547877393</v>
@@ -16743,7 +16695,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.338537161337758</v>
+        <v>1.335507789847281</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.739405820999423</v>
@@ -16832,7 +16784,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.364151169619324</v>
+        <v>1.357910027773013</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.807376345467638</v>
@@ -16921,7 +16873,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.358924547633606</v>
+        <v>1.324576066910622</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.921031758250262</v>
@@ -17010,7 +16962,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.343557500087584</v>
+        <v>1.312187196899309</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.927625540083546</v>
@@ -17099,7 +17051,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.335385393864473</v>
+        <v>1.305659199576447</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.936504762597284</v>
@@ -17188,7 +17140,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.334176807418184</v>
+        <v>1.306130988211584</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.929842144437708</v>
@@ -17277,7 +17229,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.334388204590799</v>
+        <v>1.306846497235362</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.928158206571162</v>
@@ -17366,7 +17318,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.33598599835328</v>
+        <v>1.308590044034103</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.936786069762308</v>
@@ -17455,7 +17407,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.334972413396923</v>
+        <v>1.306935955603753</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.935419441748162</v>
@@ -17544,7 +17496,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.336182634957751</v>
+        <v>1.307713541602804</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.935016457806893</v>
@@ -17633,7 +17585,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.33152099996597</v>
+        <v>1.30393999256938</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.944335250799302</v>
@@ -17722,7 +17674,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.335999471440865</v>
+        <v>1.307008092701418</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.926074676973581</v>
@@ -17811,7 +17763,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.342345025849826</v>
+        <v>1.312169976850487</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.956714628211745</v>
@@ -17900,7 +17852,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.332210434744812</v>
+        <v>1.29296801897855</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.864334096311835</v>
@@ -17989,7 +17941,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.373832577140688</v>
+        <v>1.323041851865721</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.75647574874163</v>
@@ -18078,7 +18030,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.376465614530968</v>
+        <v>1.317405130695351</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.84006891900748</v>
@@ -18167,7 +18119,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.360411067030483</v>
+        <v>1.302759045857416</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.710182719960371</v>
@@ -18256,7 +18208,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.355240770625155</v>
+        <v>1.336658995741413</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.870000325654396</v>
@@ -18345,7 +18297,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.385504820516045</v>
+        <v>1.366352579469402</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.818637579948294</v>
@@ -18434,7 +18386,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.398510886753564</v>
+        <v>1.382849566532506</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.849783364851563</v>
@@ -18523,7 +18475,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.408711312175036</v>
+        <v>1.393180791671196</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.821468394711924</v>
@@ -18612,7 +18564,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.410558337662699</v>
+        <v>1.396483700547787</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.840174624441647</v>
@@ -18701,7 +18653,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.407795588760586</v>
+        <v>1.397870379616645</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.834339913999703</v>
@@ -18790,7 +18742,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.413159269860965</v>
+        <v>1.405067848136019</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.839607448192918</v>
@@ -18879,7 +18831,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.414393997473371</v>
+        <v>1.407262623437103</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.837532977825092</v>
@@ -18968,7 +18920,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.433649584771951</v>
+        <v>1.425977323029752</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.830573259351887</v>
@@ -19057,7 +19009,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.434136403225685</v>
+        <v>1.428919841780589</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.842439449535001</v>
@@ -19146,7 +19098,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.420570073789351</v>
+        <v>1.416084531882045</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.843526574365569</v>
@@ -19235,7 +19187,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.421676964667113</v>
+        <v>1.415125140048087</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.860059540951037</v>
@@ -19324,7 +19276,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.451465493037145</v>
+        <v>1.438829811089444</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.734868145640973</v>
@@ -19610,7 +19562,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495539776542013</v>
+        <v>1.467645840417858</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.198175253762962</v>
@@ -19699,7 +19651,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.517487733208042</v>
+        <v>1.493684628774112</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.311185236243922</v>
@@ -19788,7 +19740,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.526774898078614</v>
+        <v>1.487299284578391</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.214641144264439</v>
@@ -19877,7 +19829,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548970256726025</v>
+        <v>1.502778676689162</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.087934223349281</v>
@@ -19966,7 +19918,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.510778986927139</v>
+        <v>1.465897030445071</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.15837051820253</v>
@@ -20055,7 +20007,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.51459149297646</v>
+        <v>1.469724961280279</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.156291488146481</v>
@@ -20144,7 +20096,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.488642226988235</v>
+        <v>1.452083091579504</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.196864171739236</v>
@@ -20233,7 +20185,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.489808326938934</v>
+        <v>1.462466167998835</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.177596650290444</v>
@@ -20322,7 +20274,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.496867327761805</v>
+        <v>1.461397273815466</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.140387788333726</v>
@@ -20411,7 +20363,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.480901274037389</v>
+        <v>1.44722088623034</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.11106310633593</v>
@@ -20500,7 +20452,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.507805008161307</v>
+        <v>1.469437868559156</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.137227579424717</v>
@@ -20589,7 +20541,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.513590127564785</v>
+        <v>1.478504726488006</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.202399683456273</v>
@@ -20678,7 +20630,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.52353185236793</v>
+        <v>1.484823921125188</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.136127454296719</v>
@@ -20767,7 +20719,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.521003183828001</v>
+        <v>1.482025598271411</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.108967862612534</v>
@@ -20856,7 +20808,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.547577467536236</v>
+        <v>1.499172541182016</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.123946362168923</v>
@@ -20945,7 +20897,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.53141135245491</v>
+        <v>1.49440517181115</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.308306287480919</v>
@@ -21034,7 +20986,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.518216181469573</v>
+        <v>1.479816424545314</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.243094806330037</v>
@@ -21123,7 +21075,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.506843949466489</v>
+        <v>1.4785249481877</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.390439904291121</v>
@@ -21212,7 +21164,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.492147304231698</v>
+        <v>1.461013210498921</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.031571989648759</v>
@@ -21301,7 +21253,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.512143789835046</v>
+        <v>1.520754653017158</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.786227723486864</v>
@@ -21390,7 +21342,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.551792340639564</v>
+        <v>1.547846993726496</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.893177465626044</v>
@@ -21479,7 +21431,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.615049029860748</v>
+        <v>1.61777488781479</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.973566771640717</v>
@@ -21568,7 +21520,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.622205534950194</v>
+        <v>1.625469682576955</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.004741065272054</v>
@@ -21657,7 +21609,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594426147135631</v>
+        <v>1.589282886951929</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.056560411130707</v>
@@ -21746,7 +21698,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.578953146576466</v>
+        <v>1.575966353254888</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.062108924887956</v>
@@ -21835,7 +21787,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.573035208065182</v>
+        <v>1.572430803982132</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.052577485825918</v>
@@ -21924,7 +21876,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.552557169225227</v>
+        <v>1.554225949911146</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.077190272836277</v>
@@ -22013,7 +21965,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.548810051347225</v>
+        <v>1.55258571597105</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.015955411060469</v>
@@ -22102,7 +22054,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.558846429532994</v>
+        <v>1.56597657769489</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.052688445991281</v>
@@ -22191,7 +22143,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.521738895275742</v>
+        <v>1.534090313913015</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.08995952478289</v>
@@ -22280,7 +22232,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.529880899097576</v>
+        <v>1.542707030728994</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.064387363604412</v>
@@ -22369,7 +22321,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.501961539722211</v>
+        <v>1.516439464377171</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.071380216308579</v>
@@ -22458,7 +22410,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.505830687316957</v>
+        <v>1.517131769518598</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.048355530247146</v>
@@ -22547,7 +22499,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.519170267330721</v>
+        <v>1.529189259003443</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.975312595737363</v>
@@ -22636,7 +22588,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.512785234354751</v>
+        <v>1.508968445240692</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.093919842131177</v>
@@ -22725,7 +22677,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.476288701841852</v>
+        <v>1.476611790674695</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.233532440163165</v>
@@ -22814,7 +22766,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.337489968527477</v>
+        <v>1.326495491504587</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.881093851094306</v>
@@ -22903,7 +22855,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.303859420043111</v>
+        <v>1.288850767821617</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.891656080825434</v>
@@ -22992,7 +22944,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.298830213996307</v>
+        <v>1.292902507237145</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.831225358953187</v>
@@ -23081,7 +23033,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.322196592993141</v>
+        <v>1.313384467415861</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.851563255400546</v>
@@ -23170,7 +23122,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.330507199847646</v>
+        <v>1.322032842188515</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.874793529023683</v>
@@ -23259,7 +23211,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.359603211297639</v>
+        <v>1.352007534064741</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.867328515460362</v>
@@ -23348,7 +23300,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.360228789682901</v>
+        <v>1.352935696787648</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.876739693632814</v>
@@ -23437,7 +23389,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.359850388866871</v>
+        <v>1.35231929361508</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.848647903639581</v>
@@ -23526,7 +23478,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.40602827192373</v>
+        <v>1.394394185850058</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.828949862205342</v>
@@ -23615,7 +23567,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.417092645537894</v>
+        <v>1.404068571721106</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.846771072316764</v>
@@ -23704,7 +23656,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.448348046691647</v>
+        <v>1.431254731193248</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.827067173072902</v>
@@ -23793,7 +23745,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.456069763953762</v>
+        <v>1.4436592770462</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.866080669153273</v>
@@ -23882,7 +23834,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.455753382114829</v>
+        <v>1.446933079906696</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.877267777932916</v>
@@ -23971,7 +23923,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.467335239731222</v>
+        <v>1.458014120845565</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.867415817929109</v>
@@ -24060,7 +24012,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.487386595033795</v>
+        <v>1.470521027704846</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.779567451689425</v>
@@ -24346,7 +24298,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.422814376301895</v>
+        <v>1.394314907581363</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.002985733981859</v>
@@ -24435,7 +24387,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.43607534660212</v>
+        <v>1.410913957698636</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.128975866485077</v>
@@ -24524,7 +24476,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.475298681331511</v>
+        <v>1.441478567295761</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.033272345897739</v>
@@ -24613,7 +24565,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.494428122803078</v>
+        <v>1.452441021694093</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.883206241566941</v>
@@ -24702,7 +24654,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.473781051092175</v>
+        <v>1.43044223460742</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.977613183848626</v>
@@ -24791,7 +24743,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.481181615617011</v>
+        <v>1.437130192653</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.982107630295798</v>
@@ -24880,7 +24832,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.459876835253869</v>
+        <v>1.421001731541176</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.028484871204422</v>
@@ -24969,7 +24921,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.457333288785027</v>
+        <v>1.425428363212319</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.958253071110119</v>
@@ -25058,7 +25010,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.454106594061129</v>
+        <v>1.411795857951974</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.965990728994399</v>
@@ -25147,7 +25099,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.43624023099352</v>
+        <v>1.397355831375879</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.946701665496706</v>
@@ -25236,7 +25188,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.453729218389697</v>
+        <v>1.409149009513227</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.959855830443253</v>
@@ -25325,7 +25277,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.45301090682107</v>
+        <v>1.408186147357817</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.989284448241119</v>
@@ -25414,7 +25366,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.464209743640535</v>
+        <v>1.416919818125511</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.950580489500886</v>
@@ -25503,7 +25455,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.463805470403922</v>
+        <v>1.411795266885833</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.936053635360621</v>
@@ -25592,7 +25544,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.475183912775311</v>
+        <v>1.422582271132085</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.00718404301686</v>
@@ -25681,7 +25633,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.484294268787258</v>
+        <v>1.432327300722501</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.267293598873304</v>
@@ -25770,7 +25722,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.48100406057915</v>
+        <v>1.42282418299394</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.294300206518115</v>
@@ -25859,7 +25811,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.441187371044361</v>
+        <v>1.389430524387941</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.180601109104359</v>
@@ -25948,7 +25900,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.388044971060492</v>
+        <v>1.346927747953103</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.723756673904396</v>
@@ -26037,7 +25989,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.30925419841277</v>
+        <v>1.293521355503614</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.534335577779074</v>
@@ -26126,7 +26078,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.268869822045969</v>
+        <v>1.240145178893106</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.563726630931021</v>
@@ -26215,7 +26167,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.282463758683144</v>
+        <v>1.249480016134741</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.664412566072195</v>
@@ -26304,7 +26256,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.290170514662565</v>
+        <v>1.26040829887457</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.692114338216229</v>
@@ -26393,7 +26345,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.296209586953792</v>
+        <v>1.259947022541167</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.737284033656142</v>
@@ -26482,7 +26434,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.295707719507556</v>
+        <v>1.259167398080785</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.740179375063258</v>
@@ -26571,7 +26523,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.293695036809881</v>
+        <v>1.257790361894281</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.740000821211777</v>
@@ -26660,7 +26612,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.290106730233337</v>
+        <v>1.254528763232951</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.746061985446721</v>
@@ -26749,7 +26701,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.289088639960159</v>
+        <v>1.253898182228762</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.73518308013029</v>
@@ -26838,7 +26790,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.290004134121152</v>
+        <v>1.25610199104999</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.738237854127494</v>
@@ -26927,7 +26879,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.282160786276034</v>
+        <v>1.249744893670983</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.749100061682208</v>
@@ -27016,7 +26968,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.284324756816977</v>
+        <v>1.250862945011856</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.747826843415025</v>
@@ -27105,7 +27057,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.271764595897905</v>
+        <v>1.238917200911763</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.757938902304431</v>
@@ -27194,7 +27146,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.276166417551229</v>
+        <v>1.24234038270991</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.752492403517264</v>
@@ -27283,7 +27235,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.285076232893202</v>
+        <v>1.249067403124836</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.702791556932126</v>
@@ -27372,7 +27324,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.299621945822947</v>
+        <v>1.256284791222333</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.684136730500041</v>
@@ -27461,7 +27413,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.312152134096778</v>
+        <v>1.2695076524168</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.639783777433587</v>
@@ -27550,7 +27502,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.277466898424893</v>
+        <v>1.244763877468736</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.860111500437671</v>
@@ -27639,7 +27591,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.249657205531679</v>
+        <v>1.216510848441472</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.718946058880908</v>
@@ -27728,7 +27680,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.225168439800513</v>
+        <v>1.206098960879204</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.709598084660054</v>
@@ -27817,7 +27769,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.226104785915078</v>
+        <v>1.210272158043867</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.704655265627677</v>
@@ -27906,7 +27858,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.224490338270651</v>
+        <v>1.209677322000206</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.721577149933428</v>
@@ -27995,7 +27947,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.233011581572803</v>
+        <v>1.218798782082967</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.717479538656279</v>
@@ -28084,7 +28036,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.233356288041593</v>
+        <v>1.219520442667362</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.719644266650153</v>
@@ -28173,7 +28125,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.235683807281019</v>
+        <v>1.221647201796976</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.744696256946469</v>
@@ -28262,7 +28214,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.251783385440103</v>
+        <v>1.237249730780887</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.711488451794624</v>
@@ -28351,7 +28303,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.250791041643901</v>
+        <v>1.23663906817683</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.717237616795716</v>
@@ -28440,7 +28392,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.280822493592836</v>
+        <v>1.269122179106894</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.700142560075097</v>
@@ -28529,7 +28481,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.282481263253539</v>
+        <v>1.274186295334084</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.680526804472934</v>
@@ -28618,7 +28570,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.282613827250062</v>
+        <v>1.275359043522704</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.683723361027953</v>
@@ -28707,7 +28659,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.293969646902871</v>
+        <v>1.284348916223632</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.637742300917718</v>
@@ -28796,7 +28748,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.378725060107987</v>
+        <v>1.353713254118185</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.483093606261009</v>
@@ -29082,7 +29034,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.444126903144446</v>
+        <v>1.443839209189993</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.338073841533419</v>
@@ -29171,7 +29123,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.466003028552347</v>
+        <v>1.464358332594122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.199454918827397</v>
@@ -29260,7 +29212,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.48013348082627</v>
+        <v>1.466832560644089</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.044827183006044</v>
@@ -29349,7 +29301,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.494461502214429</v>
+        <v>1.478626684572458</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.316094900725954</v>
@@ -29438,7 +29390,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.430264557816357</v>
+        <v>1.400532147992986</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.966881279062073</v>
@@ -29527,7 +29479,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.39740484962828</v>
+        <v>1.386593080688721</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.968057543890782</v>
@@ -29616,7 +29568,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.372505119944097</v>
+        <v>1.36495713810968</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.912504703006867</v>
@@ -29705,7 +29657,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.376473355569732</v>
+        <v>1.373397016545855</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.947160244086578</v>
@@ -29794,7 +29746,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.378758863313296</v>
+        <v>1.372759472417915</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.910937989769892</v>
@@ -29883,7 +29835,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.35832553307205</v>
+        <v>1.354607540842028</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.013655269024444</v>
@@ -29972,7 +29924,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.380184795723356</v>
+        <v>1.373548950491119</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.94688842584753</v>
@@ -30061,7 +30013,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.385503378766213</v>
+        <v>1.378895320115958</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.916993872394541</v>
@@ -30150,7 +30102,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.388808480085503</v>
+        <v>1.377983394370742</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.961321148249794</v>
@@ -30239,7 +30191,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.376206735538897</v>
+        <v>1.36640865548791</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.957860749115646</v>
@@ -30328,7 +30280,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.396228546057718</v>
+        <v>1.382774300571736</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.981432384523058</v>
@@ -30417,7 +30369,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.373590267761221</v>
+        <v>1.365210428183273</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.908201521548552</v>
@@ -30506,7 +30458,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.355383798942204</v>
+        <v>1.345126794931362</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.877226106174032</v>
@@ -30595,7 +30547,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.301795608139896</v>
+        <v>1.285998442543513</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.794719952852442</v>
@@ -30684,7 +30636,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.28365167372844</v>
+        <v>1.275464799492451</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.71137943787434</v>
@@ -30773,7 +30725,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.363972608222477</v>
+        <v>1.374137107245839</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.764547238556872</v>
@@ -30862,7 +30814,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.3960337948557</v>
+        <v>1.393313413055808</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.999793861620943</v>
@@ -30951,7 +30903,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.407769251123785</v>
+        <v>1.412728790427766</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.05942846513484</v>
@@ -31040,7 +30992,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.419152747065426</v>
+        <v>1.419054053979576</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.122231004060692</v>
@@ -31129,7 +31081,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.407377991717037</v>
+        <v>1.381861883257135</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.216479711060449</v>
@@ -31218,7 +31170,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.39284501801705</v>
+        <v>1.370302617261606</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.20814731846261</v>
@@ -31307,7 +31259,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.387467664100292</v>
+        <v>1.366197311493307</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.248889351142203</v>
@@ -31396,7 +31348,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.376232865302901</v>
+        <v>1.355115840070872</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.234320362372575</v>
@@ -31485,7 +31437,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.374394404232155</v>
+        <v>1.355843168089515</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.161572653526636</v>
@@ -31574,7 +31526,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.380842056299906</v>
+        <v>1.364738464156492</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.228393063783078</v>
@@ -31663,7 +31615,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.360961101551476</v>
+        <v>1.348179884687005</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.225609263878546</v>
@@ -31752,7 +31704,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.369627255775963</v>
+        <v>1.356911056567273</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.230108960657716</v>
@@ -31841,7 +31793,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.351459623775398</v>
+        <v>1.339143343046538</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.249383180153819</v>
@@ -31930,7 +31882,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.386032132766402</v>
+        <v>1.370914946622637</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.20604742932778</v>
@@ -32019,7 +31971,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.392519343121826</v>
+        <v>1.376298397371093</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.181714677666574</v>
@@ -32108,7 +32060,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.370310314869682</v>
+        <v>1.341899680592509</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.031075662660236</v>
@@ -32197,7 +32149,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.360821527330826</v>
+        <v>1.334500202856219</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.084233609374867</v>
@@ -32286,7 +32238,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.325267747451471</v>
+        <v>1.291851204326073</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.108073787325295</v>
@@ -32375,7 +32327,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.302046077057456</v>
+        <v>1.269296369867912</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.930639596084529</v>
@@ -32464,7 +32416,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.282705053497328</v>
+        <v>1.269728674255745</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.873682302540712</v>
@@ -32553,7 +32505,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.301405783146657</v>
+        <v>1.291490451628326</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.923253936421363</v>
@@ -32642,7 +32594,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.297064444258855</v>
+        <v>1.29133164849753</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.891975183942373</v>
@@ -32731,7 +32683,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.316746431633317</v>
+        <v>1.310617158202246</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.843565362516441</v>
@@ -32820,7 +32772,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.316744279076675</v>
+        <v>1.308899704798225</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.897482155247348</v>
@@ -32909,7 +32861,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.31463207945054</v>
+        <v>1.306407612365382</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.940494564984905</v>
@@ -32998,7 +32950,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.349764186015693</v>
+        <v>1.339615503898615</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.908966679862673</v>
@@ -33087,7 +33039,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.355547784375394</v>
+        <v>1.344886443424462</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.862940327185815</v>
@@ -33176,7 +33128,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.385308755281253</v>
+        <v>1.373495407794031</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.909079395066139</v>
@@ -33265,7 +33217,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.387976990554677</v>
+        <v>1.377545769202926</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.879004111475783</v>
@@ -33354,7 +33306,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.373149143951337</v>
+        <v>1.365089630638171</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.88757729051254</v>
@@ -33443,7 +33395,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.387283089023489</v>
+        <v>1.380777264703562</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.900143353561564</v>
@@ -33532,7 +33484,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.387322455113921</v>
+        <v>1.376887875282947</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.804174817097028</v>
